--- a/Data_processed/industry/ceramics.xlsx
+++ b/Data_processed/industry/ceramics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:CW13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,20 +446,495 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>..1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>..2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>eco-costs of</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>eco-costs of.1</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>eco-costs of.2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>eco-costs of.3</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 11</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 13</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 14</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>human tox</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>ecotoxicity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>metals</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>fossil tra</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>biodiversity</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 22</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 23</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>carbon</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>ced</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>non-renewable</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>non-renewable.1</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>non-renewable.2</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>renewable</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>renewable.1</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>renewable.2</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>recipe2016</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>recipe</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>recipe.1</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>recipe.2</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>recipe.3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>recipe.4</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>recipe.5</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>global warming,</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>global warming, .1</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>global warming, .2</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>stratospheric</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>ionizing</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>ozone formation,</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>fine particulate</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>ozone formation, .1</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>freshwater</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>marine</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>freshwater</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>marine</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>human .1</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>human .2</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>land use</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>mineral resource</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>fossil resource</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>water consumption,</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>water consumption,</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>water consumption, .1</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>ef 3.1</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>acidification</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>climate change</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>ecotoxicity</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>particulate</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>eutrophication,</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>eutrophication, .1</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>eutrophication,</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>human toxicity,</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>human toxicity, non-cancer</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>ionising radiation</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>land use.1</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>ozone depletion</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>photochemical ozone formation</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>resource use,</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>resource use,.1</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>water use</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>traci</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>traci.1</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>traci.2</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>traci.3</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>traci.4</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>traci.5</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>traci.6</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>traci.7</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>traci.8</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>traci.9</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>carbon</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>pollutants</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>biodiversity.1</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>resources</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>classyfire</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>chemicals,plastics, and wood</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>note:</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 107</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 110</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 118</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>source_file</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>region</t>
         </is>
@@ -478,18 +953,301 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>A.020.01.101</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t xml:space="preserve">Materials, ceramics </t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>Alumina</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
+        <v>0.2939954857764</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6.423520639999999e-05</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.007431250570000001</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.2865</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.00741591</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.2311104e-06</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>6.200409599999999e-05</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.534057e-05</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>1.91</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.033335378</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.031846817</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.0014885608</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1.9092816e-06</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>5.5050325e-09</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1.77248e-06</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>5.348e-09</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1.46115e-13</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1.3468e-07</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1.5688e-10</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>3.808e-33</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>5.536e-15</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>8.64e-16</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>7.36e-11</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>2.048e-09</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>5.5344407e-05</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1.0815781e-06</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>5.3255868e-05</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>1.7969465e-09</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>8.9093309e-07</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>2.9939931e-09</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>4.1028471e-08</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>7.0208652e-08</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.00074</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1.92e-11</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>2.272e-09</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>4.5222214e-05</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.003536</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>0.2865</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0.0074954857764</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0.007431250570000001</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0.007431250570000001</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP2" t="inlineStr"/>
+      <c r="CQ2" t="inlineStr">
+        <is>
+          <t>Alumina: Aluminium oxide AL2O3 Corundum CASnr 1344-28-1 or 1333-84-2</t>
+        </is>
+      </c>
+      <c r="CR2" t="inlineStr"/>
+      <c r="CS2" t="inlineStr"/>
+      <c r="CT2" t="inlineStr"/>
+      <c r="CU2" t="inlineStr"/>
+      <c r="CV2" t="inlineStr">
+        <is>
+          <t>ceramics.xlsx</t>
+        </is>
+      </c>
+      <c r="CW2" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -508,18 +1266,301 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>A.020.01.103</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t xml:space="preserve">Materials, ceramics </t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Boron Carbide</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
+        <v>1.601898610886</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.12577810391</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.254349803976</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.135666303</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.0861044</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.15920952</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.09512948</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.08427438</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.041380901</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.00012282291</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.0803976e-05</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.056085379</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.079580924</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>7.240696</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="Z3" t="n">
+        <v>49.820527</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>31.835669</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>9.8442509</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>2.1982677</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>3.8820279</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>2.0603124</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.18355028</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.17548273</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.0071077484</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.0009597927</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1.0520548e-05</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>2.6286052e-08</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.13442475</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>6.7880196e-06</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>2.0483603e-08</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>5.5953152e-13</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>3.644744e-10</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>1.0784396e-08</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>3.7213791e-06</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>1.5598716e-09</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>4.2420172e-09</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.003907726</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.13051702</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.0010890416</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>3.267763e-05</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0.00020188981</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>7.6675224e-09</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>5.9230923e-05</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>6.748336e-06</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>1.0242522e-05</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>1.0080198e-07</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>1.761679e-05</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>5.198828e-05</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0.0007085388499999999</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>7.1861344</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0.28453744</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0.023905296</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0.0013046872</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0.0011154408</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>1.9552917</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>1.0861044</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0.380127907886</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>0.254349803976</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0.254349803976</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>0.135666303</v>
+      </c>
+      <c r="CP3" t="inlineStr"/>
+      <c r="CQ3" t="inlineStr">
+        <is>
+          <t>Boron Carbide: B?C Tetraboron carbide CAS nr 12069-32-8 or 12011-54-0	or 60063-34-5</t>
+        </is>
+      </c>
+      <c r="CR3" t="inlineStr"/>
+      <c r="CS3" t="inlineStr"/>
+      <c r="CT3" t="inlineStr"/>
+      <c r="CU3" t="inlineStr"/>
+      <c r="CV3" t="inlineStr">
+        <is>
+          <t>ceramics.xlsx</t>
+        </is>
+      </c>
+      <c r="CW3" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -538,18 +1579,301 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>A.020.01.104</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t xml:space="preserve">Materials, ceramics </t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Germanium</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
+        <v>1168.3697637709</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11.524803651</v>
+      </c>
+      <c r="I4" t="n">
+        <v>33.3656215899</v>
+      </c>
+      <c r="J4" t="n">
+        <v>997.07483853</v>
+      </c>
+      <c r="K4" t="n">
+        <v>126.4045</v>
+      </c>
+      <c r="L4" t="n">
+        <v>23.621686</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8.4213652</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9.0867386</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2.2094761</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.070536101</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.15805285</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.3202516</v>
+      </c>
+      <c r="S4" t="n">
+        <v>996.43941</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.63542853</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.0023187899</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>842.6966666666667</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="Z4" t="n">
+        <v>11118.535</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>11003.554</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>78.935221</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>19.243037</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>16.803413</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>22.883895</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>20.785903</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.78820253</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1.3097893</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.0012461573</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>2.9149502e-06</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>183.44388</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.00078202252</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>2.3595507e-06</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>6.446629600000001e-11</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>2.4350084e-07</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.00046364973</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>5.5530069e-08</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>4.9970539e-07</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>9.0055706e-11</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>7.9337888e-12</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>1.5929828e-12</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>1.2696944e-08</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>2.2881928e-07</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>73.40834</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>110.03554</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0.047658557</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0.0034451199</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0.023496619</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0.0001590099</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>0.004815522</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>0.00010374818</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>0.00016314325</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>0.001960613</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>0.013514007</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>7.7371999e-07</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>842.69668</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>2.3571009</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>0.5722858</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>4.2222256e-08</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>5.0779152e-06</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>0.19914418</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>6.64855</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>1509.0588</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>126.4045</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>44.888106451</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>33.3633028</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>33.36562158989999</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>997.07483853</v>
+      </c>
+      <c r="CP4" t="inlineStr"/>
+      <c r="CQ4" t="inlineStr">
+        <is>
+          <t>Germanium: Ge Element 32 CASS nr7440-56-4</t>
+        </is>
+      </c>
+      <c r="CR4" t="inlineStr"/>
+      <c r="CS4" t="inlineStr"/>
+      <c r="CT4" t="inlineStr"/>
+      <c r="CU4" t="inlineStr"/>
+      <c r="CV4" t="inlineStr">
+        <is>
+          <t>ceramics.xlsx</t>
+        </is>
+      </c>
+      <c r="CW4" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -568,18 +1892,301 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>A.020.01.105</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t xml:space="preserve">Materials, ceramics </t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Glaze (in addition to Porcelain and Stoneware)</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
+        <v>1.898329845621535</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.8863581486765</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.005773756025689999</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0005310333193444301</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0056669076</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0003715629</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.00051635727</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.8833079</v>
+      </c>
+      <c r="O5" t="n">
+        <v>7.2958732e-05</v>
+      </c>
+      <c r="P5" t="n">
+        <v>7.1846445e-06</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.0029701053</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.0048850586</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.2684483e-05</v>
+      </c>
+      <c r="T5" t="n">
+        <v>4.5243908e-07</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.000508348</v>
+      </c>
+      <c r="V5" t="n">
+        <v>3.2481661e-07</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8.3634443e-10</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>0.037779384</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="Z5" t="n">
+        <v>1.4394625</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1.3299086</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.062680422</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.011150399</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.022810016</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.01291313</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.0031225967</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.0012160487</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.0018183683</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>8.8179654e-05</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>7.2904599e-08</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>6.724735e-09</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.012350092</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.5059275e-08</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1.0578229e-10</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>2.8901234e-15</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>1.0898466e-15</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>2.8526797e-08</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>7.886085299999999e-09</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>6.5273715e-09</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>7.8630105e-12</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>1.9486706e-15</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>1.8495071e-19</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>8.07832e-11</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>1.8001177e-12</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>1.1300711e-12</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>9.9221097e-13</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>1.4314484e-09</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>1.0420601e-23</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>2.1263547e-06</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0.012347965</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0.00036547958</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>5.4222023e-08</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>1.0533895e-06</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>5.7248352e-07</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>1.095404e-07</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>2.2431733e-11</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>3.0584042e-13</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>3.3784227e-11</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>9.9920482e-09</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>1.9675545e-06</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>2.304383e-20</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>1.8868617e-16</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>0.00036000805</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>1.7042872e-06</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>4.2559221e-12</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>1.5970654e-16</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>0.037779387</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>0.37497805</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>3.7103703e-05</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>3.5092575e-05</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>1.7189601e-12</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>6.0843447e-10</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>4.0717152e-06</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>1.2467692</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>0.17018069</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>0.0056669076</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>1.8921311274465</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>0.00577297960634443</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0.00577375602569</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>0.0005310324830000001</v>
+      </c>
+      <c r="CP5" t="inlineStr"/>
+      <c r="CQ5" t="inlineStr">
+        <is>
+          <t>Glaze: Ceramic coating Glassy finish (no CAS number – depends on formulation)</t>
+        </is>
+      </c>
+      <c r="CR5" t="inlineStr"/>
+      <c r="CS5" t="inlineStr"/>
+      <c r="CT5" t="inlineStr"/>
+      <c r="CU5" t="inlineStr"/>
+      <c r="CV5" t="inlineStr">
+        <is>
+          <t>ceramics.xlsx</t>
+        </is>
+      </c>
+      <c r="CW5" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -598,18 +2205,301 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>A.020.01.106</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t xml:space="preserve">Materials, ceramics </t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Porcelain</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
+        <v>0.08914523369002</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.008943950371999999</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0143546470158</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.00287609430222</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.062970542</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0047661827</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0090739164</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.008209138899999999</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.00059030168</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.2752442e-05</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.00010175735</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.00028049983</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.00010510813</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.00022621954</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.002770568</v>
+      </c>
+      <c r="V6" t="n">
+        <v>7.828545800000001e-06</v>
+      </c>
+      <c r="W6" t="n">
+        <v>4.1817222e-07</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>0.4198036133333334</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="Z6" t="n">
+        <v>7.2615675</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>7.1371726</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.076050489</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.0099826254</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.023530362</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.014831474</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.01000869</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.0091011693</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.00039820729</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.00050931309</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>5.4563365e-07</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1.4726601e-09</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.07133236599999999</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.89581e-07</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>1.1754598e-09</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>3.211524e-14</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>5.4492332e-13</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>8.6817926e-10</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>1.5225603e-07</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>1.2975808e-10</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>1.6706957e-10</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>6.2354695e-15</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>9.247535599999999e-17</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>3.9989498e-14</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>2.4273795e-13</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>5.1515698e-14</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>6.9319133e-12</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>2.9209693e-09</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>5.2103006e-21</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>8.807927299999999e-06</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0.071323558</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>2.609812e-05</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>1.412512e-06</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>1.1705239e-05</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>3.4248215e-08</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>1.1040821e-06</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>5.1196537e-07</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>1.5292021e-10</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>7.769221e-07</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>6.105570999999999e-08</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>8.076605399999999e-08</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>1.1521915e-17</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>9.4343083e-14</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>1.6142993e-06</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>8.7947545e-06</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>2.1228766e-09</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>7.985327300000001e-14</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>0.41980507</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>0.021543501</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>0.0010841598</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>0.00022519679</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>1.8826619e-11</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>4.182268e-09</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>4.4350024e-05</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0.070413949</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>0.97827427</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>0.062970542</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>0.02306454930199999</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>0.01412101710222</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>0.0143546470158</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>0.00287567613</v>
+      </c>
+      <c r="CP6" t="inlineStr"/>
+      <c r="CQ6" t="inlineStr">
+        <is>
+          <t>Porcelain: Vitreous china Fine china (no CAS number – mixture of materials)</t>
+        </is>
+      </c>
+      <c r="CR6" t="inlineStr"/>
+      <c r="CS6" t="inlineStr"/>
+      <c r="CT6" t="inlineStr"/>
+      <c r="CU6" t="inlineStr"/>
+      <c r="CV6" t="inlineStr">
+        <is>
+          <t>ceramics.xlsx</t>
+        </is>
+      </c>
+      <c r="CW6" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -628,18 +2518,301 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>A.020.01.107</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t xml:space="preserve">Materials, ceramics </t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>PZT Piezo-electric ceramic</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
+        <v>71.484502236</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5.982017436</v>
+      </c>
+      <c r="I7" t="n">
+        <v>23.1892091</v>
+      </c>
+      <c r="J7" t="n">
+        <v>8.896725700000001</v>
+      </c>
+      <c r="K7" t="n">
+        <v>33.41655</v>
+      </c>
+      <c r="L7" t="n">
+        <v>16.671767</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5.4667749</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5.635908</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.11228</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.060756156</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.17307328</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.0506672</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4.6492</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.2934257</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2.9541</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>222.777</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="Z7" t="n">
+        <v>3423.8066</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>3251.8086</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>160.674</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>11.324</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>9.042288599999999</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>8.5339437</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.27338082</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.23496416</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.00051162732</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1.0110237e-06</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32.908146</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.00020673706</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6.237756e-07</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>1.7042441e-11</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>1.510276e-07</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.0003045364</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>3.444166e-08</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>3.526832e-07</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>9.8610224e-11</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>6.3153292e-12</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>1.314442e-12</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>1.104188e-08</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>1.91792e-07</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0.39006</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>32.518086</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0.016509381</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0.0024315045</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0.0062116139</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0.00012579131</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0.0021034135</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>9.0506394e-05</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>0.00014188125</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>0.0012351711</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0.004169499</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>6.5457542e-11</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>222.777</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>1.6636</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0.37150243</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>4.575919e-08</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>5.473953e-06</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>0.10446443</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>5.3120394</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>445.96233</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>33.41655</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>29.171226536</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>26.1433091</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>23.1892091</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>5.942625700000001</v>
+      </c>
+      <c r="CP7" t="inlineStr"/>
+      <c r="CQ7" t="inlineStr">
+        <is>
+          <t>PZT Piezo-electric ceramic: Lead zirconate titanate Pb[ZrxTi1-x]O3 CAS nr 12626-81-2</t>
+        </is>
+      </c>
+      <c r="CR7" t="inlineStr"/>
+      <c r="CS7" t="inlineStr"/>
+      <c r="CT7" t="inlineStr"/>
+      <c r="CU7" t="inlineStr"/>
+      <c r="CV7" t="inlineStr">
+        <is>
+          <t>ceramics.xlsx</t>
+        </is>
+      </c>
+      <c r="CW7" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -658,18 +2831,301 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>A.020.01.108</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t xml:space="preserve">Materials, ceramics </t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>Silicon (purified) for electronics and PV cells</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
+        <v>3.939293851279</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.08237587280999999</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.1432030488</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.470711729669</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.2430032</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.077618855</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.062837104</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.06987259899999999</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.01176066</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.0003458454</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.00039676841</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.0020548244</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.1861011</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.00065980698</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.28460941</v>
+      </c>
+      <c r="V8" t="n">
+        <v>3.245842e-05</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.219669e-06</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>14.95335466666667</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="Z8" t="n">
+        <v>229.09095</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>166.27392</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>34.491018</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7.5933712</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>13.523499</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>7.2091488</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.27782843</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.25797698</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.011883802</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.0079676517</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>1.5466246e-05</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>4.3948973e-08</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1.1159176</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>1.3876722e-05</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>4.186942e-08</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>1.1439324e-12</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>1.5893597e-12</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>1.9135157e-09</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>1.5871609e-06</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>4.3204831e-10</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>1.6460386e-09</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>1.8186786e-14</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>2.6971979e-16</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>2.2611986e-13</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>6.5188586e-14</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>1.2386475e-14</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>4.9786802e-11</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>3.9764825e-10</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>1.519671e-20</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0.099663527</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>1.0162541</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0.00071176611</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>1.1365865e-05</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0.0004169392</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>2.7388974e-07</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>1.9263832e-05</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>3.2712943e-08</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>4.4601728e-10</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>4.9268664e-08</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>4.8553082e-07</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>4.3411922e-07</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>3.3605586e-17</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>2.7516732e-13</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>1.4091236e-05</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>0.00024882379</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>6.2151143e-09</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>2.3290538e-13</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>14.953359</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>0.0013555794</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>0.0077847951</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0.0042452568</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>1.0691578e-10</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>1.24771e-08</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0.00075021133</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0.036339582</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>14.50645</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>2.2430032</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>0.22488665621</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>0.142512003069</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>0.1432030488</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>1.47071051</v>
+      </c>
+      <c r="CP8" t="inlineStr"/>
+      <c r="CQ8" t="inlineStr">
+        <is>
+          <t>Silicon (purified): Hyperpure silicon Polycrystalline silicon CAS nr 7440-21-3</t>
+        </is>
+      </c>
+      <c r="CR8" t="inlineStr"/>
+      <c r="CS8" t="inlineStr"/>
+      <c r="CT8" t="inlineStr"/>
+      <c r="CU8" t="inlineStr"/>
+      <c r="CV8" t="inlineStr">
+        <is>
+          <t>ceramics.xlsx</t>
+        </is>
+      </c>
+      <c r="CW8" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -688,18 +3144,301 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>A.020.01.109</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t xml:space="preserve">Materials, ceramics </t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Silicon carbide</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
+        <v>4.01568703752</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.3278462613</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.09056389222</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.006861384</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.5904155</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.8181548</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.23101265</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.25105186</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.07070108</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.001364236</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.0047290853</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.041364625</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.0011297962</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.0057315878</v>
+      </c>
+      <c r="V9" t="n">
+        <v>3.181722e-05</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>17.26943666666667</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="Z9" t="n">
+        <v>205.77256</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>204.69528</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.71199849</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.17099965</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.19428396</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.56667471</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.53388775</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.018171045</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.01461592</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>3.2007659e-05</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>6.7200612e-08</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>2.0470476</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>1.6026037e-05</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>4.8354422e-08</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>1.3211119e-12</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>6.7275335e-09</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>1.5967474e-05</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>1.5342058e-09</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>1.730767e-08</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>2.6943741e-12</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>2.4850232e-13</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>4.9067588e-14</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>2.9694265e-10</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>7.1234197e-09</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>9.478798799999999e-05</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>2.0469528</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0.0010805664</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>0.00011932431</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0.00048151772</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>4.965824e-06</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0.00016157467</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>2.1048596e-06</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>4.9150989e-06</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>5.5735644e-05</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>0.00025042824</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>1.5906755e-14</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>17.269437</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>0.081639954</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>0.015698792</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>1.2579022e-09</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>1.5234362e-07</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>0.0067522266</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0.20818205</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>28.072495</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>2.5904155</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>1.4183783363</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>1.090532075</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>1.09056389222</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>0.006861384</v>
+      </c>
+      <c r="CP9" t="inlineStr"/>
+      <c r="CQ9" t="inlineStr">
+        <is>
+          <t>Silicon Carbide: SiC Carborundum CAS nr 409-21-2</t>
+        </is>
+      </c>
+      <c r="CR9" t="inlineStr"/>
+      <c r="CS9" t="inlineStr"/>
+      <c r="CT9" t="inlineStr"/>
+      <c r="CU9" t="inlineStr"/>
+      <c r="CV9" t="inlineStr">
+        <is>
+          <t>ceramics.xlsx</t>
+        </is>
+      </c>
+      <c r="CW9" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -718,18 +3457,301 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>A.020.01.110</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t xml:space="preserve">Materials, ceramics </t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Silicon Nitride</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
+        <v>1.27346484822337</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.01753149518</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.025417351242</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.7189085818013699</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.51160742</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.0097144504</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.014054647</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.014821693</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.0022642339</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.00020750724</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.00023806104</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.0012328946</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.70853335</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.00039588419</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.0103745</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.9475052e-05</v>
+      </c>
+      <c r="W10" t="n">
+        <v>7.3180137e-07</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>3.410716133333334</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="Z10" t="n">
+        <v>37.043931</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>35.601242</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.85404306</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.12553038</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.29007719</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.17303848</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.061835763</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.056271872</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.0026639853</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.0028999051</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>3.3736134e-06</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>9.8520168e-09</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.40614918</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.1651503e-06</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>9.5500221e-09</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>2.6092025e-13</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>9.5361581e-13</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>4.2185026e-10</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.0777193e-07</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>9.360647e-11</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>2.07934e-10</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1.0912072e-14</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>1.6183187e-16</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>1.3567192e-13</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>3.9113151e-14</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>7.431884999999999e-15</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>2.9872081e-11</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>2.3858895e-10</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>9.118026e-21</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0.059446894</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0.34670228</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0.00014754176</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>1.4441062e-06</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>9.5099816e-05</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>1.5143099e-07</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>2.8410178e-06</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>1.9627766e-08</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>2.6761037e-10</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>2.9561198e-08</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>2.9131849e-07</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>2.2111117e-07</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>2.0163351e-17</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>1.6510039e-13</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>2.9251378e-06</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>4.4514645e-05</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>3.7251028e-09</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>1.3974323e-13</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>3.4107187</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>0.00081334764</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>0.00099309806</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>0.00094014689</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>6.414946599999999e-11</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>7.4862599e-09</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>0.00010586839</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0.021803749</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>4.763083</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>0.51160742</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>0.04253348718000001</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>0.02500272380137</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>0.025417351242</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>0.7189078499999999</v>
+      </c>
+      <c r="CP10" t="inlineStr"/>
+      <c r="CQ10" t="inlineStr">
+        <is>
+          <t>Silicon Nitride: Si3N3 CAS nr 12033-89-5 or 12033-60-2</t>
+        </is>
+      </c>
+      <c r="CR10" t="inlineStr"/>
+      <c r="CS10" t="inlineStr"/>
+      <c r="CT10" t="inlineStr"/>
+      <c r="CU10" t="inlineStr"/>
+      <c r="CV10" t="inlineStr">
+        <is>
+          <t>ceramics.xlsx</t>
+        </is>
+      </c>
+      <c r="CW10" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -748,18 +3770,301 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>A.020.01.111</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t xml:space="preserve">Materials, ceramics </t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>Stoneware</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="G11" t="n">
+        <v>0.08629534589752</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.008912333967999999</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0139887294873</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.00197852144222</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.061415761</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.0044222501</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.0090519698</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.0081813397</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.00058739521</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4.2620068e-05</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.00010097899</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.00028048002</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.00010451367</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.00022621954</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.0018735896</v>
+      </c>
+      <c r="V11" t="n">
+        <v>7.8100273e-06</v>
+      </c>
+      <c r="W11" t="n">
+        <v>4.1817222e-07</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>0.4094384066666667</v>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="Z11" t="n">
+        <v>7.1254756</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>7.0016957</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.07563879599999999</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.0099826254</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.023440486</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.014717952</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.0098487987</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.008958360800000001</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.00039062827</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.00049980963</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>5.3707199e-07</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>1.4446312e-09</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.070001349</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.7996209e-07</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>1.1464372e-09</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>3.1322302e-14</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>5.4492332e-13</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>8.6743432e-10</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>1.533143e-07</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>1.295882e-10</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>1.6825385e-10</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>6.2354695e-15</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>9.247535599999999e-17</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>3.9546064e-14</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>2.262147e-13</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>4.8520054e-14</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>6.9098943e-12</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>2.9207135e-09</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>5.2103006e-21</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>8.7532528e-06</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>0.069992596</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>2.5542032e-05</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>1.3623509e-06</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>1.1416229e-05</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>3.4232502e-08</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>1.0601612e-06</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>5.1196537e-07</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>1.5292021e-10</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>7.769221e-07</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>6.0840482e-08</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>8.0210632e-08</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>1.1521915e-17</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>9.4343083e-14</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>1.6057293e-06</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>8.631113899999999e-06</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>2.1228766e-09</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>7.985327300000001e-14</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>0.40943987</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>0.02153627</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>0.0010798404</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>0.00022370538</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>1.8625996e-11</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>4.1585584e-09</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>4.2134021e-05</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>0.062270017</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>0.9599189299999999</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>0.061415761</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>0.022667033888</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>0.01375511809222</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>0.0139887294873</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>0.00197810327</v>
+      </c>
+      <c r="CP11" t="inlineStr"/>
+      <c r="CQ11" t="inlineStr">
+        <is>
+          <t>Stoneware: Ceramic ware Hard-paste pottery (no CAS number – mixture of materials)</t>
+        </is>
+      </c>
+      <c r="CR11" t="inlineStr"/>
+      <c r="CS11" t="inlineStr"/>
+      <c r="CT11" t="inlineStr"/>
+      <c r="CU11" t="inlineStr"/>
+      <c r="CV11" t="inlineStr">
+        <is>
+          <t>ceramics.xlsx</t>
+        </is>
+      </c>
+      <c r="CW11" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -778,18 +4083,301 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>A.020.01.112</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t xml:space="preserve">Materials, ceramics </t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>Tungsten Carbide</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="G12" t="n">
+        <v>23.948234234372</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.600740708372</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.114363204</v>
+      </c>
+      <c r="J12" t="n">
+        <v>18.990283352</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.24284697</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.6018461</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.045970764</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.11781724</v>
+      </c>
+      <c r="O12" t="n">
+        <v>4.3508372e-05</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.44263976</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.0402402</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.46654634</v>
+      </c>
+      <c r="S12" t="n">
+        <v>18.947587</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.042696352</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>1.6189798</v>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="Z12" t="n">
+        <v>31.632704</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>19.625367</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>5.3031339</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6.5954678</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.071034843</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.03770039</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>1.2326897</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1.2017116</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.022577661</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0.0084005001</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>7.2045058e-05</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>8.3497267e-08</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1.1765406</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>1.5024132e-06</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>4.5331434e-09</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>1.2385195e-13</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>3.7578496e-09</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>4.725269e-05</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>8.5860881e-10</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>5.50408e-08</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>2.0719076e-11</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>7.98342e-13</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>2.2905582e-08</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>3.9660809e-11</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>9.783092800000001e-11</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>2.8593862e-06</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>2.0426811e-05</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>0.98372412</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>0.19281651</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>0.0050876457</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>0.0003794679</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>4.5141452e-05</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>5.4656895e-05</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>0.0003126197</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>2.3941806e-06</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>5.3805909e-07</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>0.00059544633</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>0.00068833756</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>4.7153865e-05</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>3.0501916e-05</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>0.0029313878</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>1.6189798</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>0.10225048</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>0.25962641</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>0.0023716881</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>3.9675738e-05</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>3.490948e-05</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>0.015867141</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>454.16799</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>2.6227286</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>0.24284697</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>4.715103912372</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>3.114363204</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>3.114363204</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>18.990283352</v>
+      </c>
+      <c r="CP12" t="inlineStr"/>
+      <c r="CQ12" t="inlineStr">
+        <is>
+          <t>Tungsten Carbide: WC Cemented carbide CAS nr 12070-12-1</t>
+        </is>
+      </c>
+      <c r="CR12" t="inlineStr"/>
+      <c r="CS12" t="inlineStr"/>
+      <c r="CT12" t="inlineStr"/>
+      <c r="CU12" t="inlineStr"/>
+      <c r="CV12" t="inlineStr">
+        <is>
+          <t>ceramics.xlsx</t>
+        </is>
+      </c>
+      <c r="CW12" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -808,18 +4396,301 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>A.020.01.113</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t xml:space="preserve">Materials, ceramics </t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>Zirconia</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="G13" t="n">
+        <v>0.5726987058817639</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.001551441271248</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.02734726461051583</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.4958</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.0260559</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0012913642</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.00155142</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.1271248e-08</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4.1051583e-10</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.4958</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
         <v>0.32</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="Z13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.013541362</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0.012847094</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.00039438772</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0.00029988</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>7.702095e-07</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>1.4585345e-09</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>2.9696e-07</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>8.96e-10</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>2.448e-14</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>4.95e-11</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>4.732e-07</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>1.131e-11</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>5.512e-10</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>2.6292933e-05</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>3.8001393e-06</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>8.9224491e-06</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>4.8086505e-14</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>3.1303054e-06</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>1.4075309e-11</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>5.4324141e-07</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>5.1196645e-06</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>4.7771189e-06</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>0.0013492545</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>0.0026</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>8.775648e-05</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>0.00015888886</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>0.02889870588176383</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>0.02734726461051583</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>0.02734726461051583</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>0.4958</v>
+      </c>
+      <c r="CP13" t="inlineStr"/>
+      <c r="CQ13" t="inlineStr">
+        <is>
+          <t>Zirconia: Zirconium dioxide Cubic zirconia CAS nr 1314-23-4</t>
+        </is>
+      </c>
+      <c r="CR13" t="inlineStr"/>
+      <c r="CS13" t="inlineStr"/>
+      <c r="CT13" t="inlineStr"/>
+      <c r="CU13" t="inlineStr"/>
+      <c r="CV13" t="inlineStr">
+        <is>
+          <t>ceramics.xlsx</t>
+        </is>
+      </c>
+      <c r="CW13" t="inlineStr">
         <is>
           <t>Global</t>
         </is>

--- a/Data_processed/industry/ceramics.xlsx
+++ b/Data_processed/industry/ceramics.xlsx
@@ -436,37 +436,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>Unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>Process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Total MJ</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>carbon</t>
+          <t>Carbon MJ</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ced</t>
+          <t>CED MJ</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>region</t>
+          <t>Region</t>
         </is>
       </c>
     </row>

--- a/Data_processed/industry/ceramics.xlsx
+++ b/Data_processed/industry/ceramics.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon MJ</t>
+          <t>Carbon kg-CO2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">

--- a/Data_processed/industry/ceramics.xlsx
+++ b/Data_processed/industry/ceramics.xlsx
@@ -136,6 +136,51 @@
 </styleSheet>
 </file>
 
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Data Processor</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Various (e.g. kg, kWh)</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Carbon footprint</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Cumulative energy demand</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Climate change impact</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -436,37 +481,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unit</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Process</t>
+          <t>process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Total MJ</t>
+          <t>carbon (kg CO2 eq)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon kg-CO2</t>
+          <t>ced (MJ)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>CED MJ</t>
+          <t>climate change (kg CO2 eq)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Region</t>
+          <t>region</t>
         </is>
       </c>
     </row>
@@ -487,13 +532,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.2939954857764</v>
+        <v>1.91</v>
       </c>
       <c r="E2" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.3255868e-05</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -518,13 +563,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.601898610886</v>
+        <v>7.240696</v>
       </c>
       <c r="E3" t="n">
-        <v>7.240696</v>
+        <v>49.820527</v>
       </c>
       <c r="F3" t="n">
-        <v>49.820527</v>
+        <v>0.00020188981</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -549,13 +594,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1168.3697637709</v>
+        <v>842.6966666666667</v>
       </c>
       <c r="E4" t="n">
-        <v>842.6966666666667</v>
+        <v>11118.535</v>
       </c>
       <c r="F4" t="n">
-        <v>11118.535</v>
+        <v>0.023496619</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -580,13 +625,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.898329845621535</v>
+        <v>0.037779384</v>
       </c>
       <c r="E5" t="n">
-        <v>0.037779384</v>
+        <v>1.4394625</v>
       </c>
       <c r="F5" t="n">
-        <v>1.4394625</v>
+        <v>1.0533895e-06</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -611,13 +656,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.08914523369002</v>
+        <v>0.4198036133333334</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4198036133333334</v>
+        <v>7.2615675</v>
       </c>
       <c r="F6" t="n">
-        <v>7.2615675</v>
+        <v>1.1705239e-05</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -642,13 +687,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>71.484502236</v>
+        <v>222.777</v>
       </c>
       <c r="E7" t="n">
-        <v>222.777</v>
+        <v>3423.8066</v>
       </c>
       <c r="F7" t="n">
-        <v>3423.8066</v>
+        <v>0.0062116139</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -673,13 +718,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3.939293851279</v>
+        <v>14.95335466666667</v>
       </c>
       <c r="E8" t="n">
-        <v>14.95335466666667</v>
+        <v>229.09095</v>
       </c>
       <c r="F8" t="n">
-        <v>229.09095</v>
+        <v>0.0004169392</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -704,13 +749,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4.01568703752</v>
+        <v>17.26943666666667</v>
       </c>
       <c r="E9" t="n">
-        <v>17.26943666666667</v>
+        <v>205.77256</v>
       </c>
       <c r="F9" t="n">
-        <v>205.77256</v>
+        <v>0.00048151772</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -735,13 +780,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.27346484822337</v>
+        <v>3.410716133333334</v>
       </c>
       <c r="E10" t="n">
-        <v>3.410716133333334</v>
+        <v>37.043931</v>
       </c>
       <c r="F10" t="n">
-        <v>37.043931</v>
+        <v>9.5099816e-05</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -766,13 +811,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.08629534589752</v>
+        <v>0.4094384066666667</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4094384066666667</v>
+        <v>7.1254756</v>
       </c>
       <c r="F11" t="n">
-        <v>7.1254756</v>
+        <v>1.1416229e-05</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -797,13 +842,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>23.948234234372</v>
+        <v>1.6189798</v>
       </c>
       <c r="E12" t="n">
-        <v>1.6189798</v>
+        <v>31.632704</v>
       </c>
       <c r="F12" t="n">
-        <v>31.632704</v>
+        <v>4.5141452e-05</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -828,13 +873,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.5726987058817639</v>
+        <v>0.32</v>
       </c>
       <c r="E13" t="n">
-        <v>0.32</v>
+        <v>4.2</v>
       </c>
       <c r="F13" t="n">
-        <v>4.2</v>
+        <v>8.9224491e-06</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -844,5 +889,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>